--- a/Yagi.xlsx
+++ b/Yagi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\# Thesis 2022-2023\Master-Thesis-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Antenne\Desktop\C J P\Master-Thesis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="2208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="2205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,72 +873,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>-60.710999999999999</v>
+        <v>-65.400000000000006</v>
       </c>
       <c r="D1">
-        <v>1700003000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>-62.438000000000002</v>
+        <v>-60.710999999999999</v>
       </c>
       <c r="D2">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>-64.608000000000004</v>
+        <v>-62.438000000000002</v>
       </c>
       <c r="D3">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>-61.616999999999997</v>
+        <v>-64.608000000000004</v>
       </c>
       <c r="D4">
         <v>1700003000</v>
@@ -946,27 +946,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>-58.573</v>
+        <v>-61.616999999999997</v>
       </c>
       <c r="D5">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>-61.981000000000002</v>
+        <v>-58.573</v>
       </c>
       <c r="D6">
         <v>1700000000</v>
@@ -974,13 +974,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>-61.244999999999997</v>
+        <v>-61.981000000000002</v>
       </c>
       <c r="D7">
         <v>1700000000</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>-59.676000000000002</v>
+        <v>-61.244999999999997</v>
       </c>
       <c r="D8">
         <v>1700000000</v>
@@ -1002,41 +1002,41 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>-60.933999999999997</v>
+        <v>-59.676000000000002</v>
       </c>
       <c r="D9">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>-58.726999999999997</v>
+        <v>-60.933999999999997</v>
       </c>
       <c r="D10">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>-58.448</v>
+        <v>-58.726999999999997</v>
       </c>
       <c r="D11">
         <v>1700000000</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>-58.698</v>
+        <v>-58.448</v>
       </c>
       <c r="D12">
         <v>1700000000</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>-57.970999999999997</v>
+        <v>-58.698</v>
       </c>
       <c r="D13">
         <v>1700000000</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>-57.265000000000001</v>
+        <v>-57.970999999999997</v>
       </c>
       <c r="D14">
         <v>1700000000</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>-57.524000000000001</v>
+        <v>-57.265000000000001</v>
       </c>
       <c r="D15">
         <v>1700000000</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>-57.216000000000001</v>
+        <v>-57.524000000000001</v>
       </c>
       <c r="D16">
         <v>1700000000</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>-57.701000000000001</v>
+        <v>-57.216000000000001</v>
       </c>
       <c r="D17">
         <v>1700000000</v>
@@ -1128,27 +1128,27 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>-57.036999999999999</v>
+        <v>-57.701000000000001</v>
       </c>
       <c r="D18">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>-58.893999999999998</v>
+        <v>-57.036999999999999</v>
       </c>
       <c r="D19">
         <v>1700003000</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>-58.404000000000003</v>
+        <v>-58.893999999999998</v>
       </c>
       <c r="D20">
         <v>1700003000</v>
@@ -1170,41 +1170,41 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>-59.249000000000002</v>
+        <v>-58.404000000000003</v>
       </c>
       <c r="D21">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>-60.03</v>
+        <v>-59.249000000000002</v>
       </c>
       <c r="D22">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>-60.468000000000004</v>
+        <v>-60.03</v>
       </c>
       <c r="D23">
         <v>1700003000</v>
@@ -1212,27 +1212,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>-60.923999999999999</v>
+        <v>-60.468000000000004</v>
       </c>
       <c r="D24">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>-59.06</v>
+        <v>-60.923999999999999</v>
       </c>
       <c r="D25">
         <v>1700000000</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>-59.308999999999997</v>
+        <v>-59.06</v>
       </c>
       <c r="D26">
         <v>1700000000</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>-60.753999999999998</v>
+        <v>-59.308999999999997</v>
       </c>
       <c r="D27">
         <v>1700000000</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>-61.767000000000003</v>
+        <v>-60.753999999999998</v>
       </c>
       <c r="D28">
         <v>1700000000</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>-61.430999999999997</v>
+        <v>-61.767000000000003</v>
       </c>
       <c r="D29">
         <v>1700000000</v>
@@ -1296,41 +1296,41 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>-63.478000000000002</v>
+        <v>-61.430999999999997</v>
       </c>
       <c r="D30">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>-63.753</v>
+        <v>-63.478000000000002</v>
       </c>
       <c r="D31">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>-63.180999999999997</v>
+        <v>-63.753</v>
       </c>
       <c r="D32">
         <v>1700000000</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>-63.930999999999997</v>
+        <v>-63.180999999999997</v>
       </c>
       <c r="D33">
         <v>1700000000</v>
@@ -1352,83 +1352,83 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>-64.299000000000007</v>
+        <v>-63.930999999999997</v>
       </c>
       <c r="D34">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>-63.792000000000002</v>
+        <v>-64.299000000000007</v>
       </c>
       <c r="D35">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <v>-62.454000000000001</v>
+        <v>-63.792000000000002</v>
       </c>
       <c r="D36">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <v>-61.484000000000002</v>
+        <v>-62.454000000000001</v>
       </c>
       <c r="D37">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38">
-        <v>-61.56</v>
+        <v>-61.484000000000002</v>
       </c>
       <c r="D38">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>-59.161000000000001</v>
+        <v>-61.56</v>
       </c>
       <c r="D39">
         <v>1700003000</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C40">
-        <v>-60.247</v>
+        <v>-59.161000000000001</v>
       </c>
       <c r="D40">
         <v>1700003000</v>
@@ -1450,27 +1450,27 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>-60.551000000000002</v>
+        <v>-60.247</v>
       </c>
       <c r="D41">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42">
-        <v>-57.963000000000001</v>
+        <v>-60.551000000000002</v>
       </c>
       <c r="D42">
         <v>1700000000</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43">
-        <v>-57.616999999999997</v>
+        <v>-57.963000000000001</v>
       </c>
       <c r="D43">
         <v>1700000000</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44">
-        <v>-57.75</v>
+        <v>-57.616999999999997</v>
       </c>
       <c r="D44">
         <v>1700000000</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45">
-        <v>-57.787999999999997</v>
+        <v>-57.75</v>
       </c>
       <c r="D45">
         <v>1700000000</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>-57.473999999999997</v>
+        <v>-57.787999999999997</v>
       </c>
       <c r="D46">
         <v>1700000000</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47">
-        <v>-56.622999999999998</v>
+        <v>-57.473999999999997</v>
       </c>
       <c r="D47">
         <v>1700000000</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48">
-        <v>-56.74</v>
+        <v>-56.622999999999998</v>
       </c>
       <c r="D48">
         <v>1700000000</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49">
-        <v>-56.433</v>
+        <v>-56.74</v>
       </c>
       <c r="D49">
         <v>1700000000</v>
@@ -1576,27 +1576,27 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>-57.707999999999998</v>
+        <v>-56.433</v>
       </c>
       <c r="D50">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51">
-        <v>-56.406999999999996</v>
+        <v>-57.707999999999998</v>
       </c>
       <c r="D51">
         <v>1700003000</v>
@@ -1604,27 +1604,27 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52">
-        <v>-56.841000000000001</v>
+        <v>-56.406999999999996</v>
       </c>
       <c r="D52">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53">
-        <v>-56.784999999999997</v>
+        <v>-56.841000000000001</v>
       </c>
       <c r="D53">
         <v>1700000000</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54">
-        <v>-56.976999999999997</v>
+        <v>-56.784999999999997</v>
       </c>
       <c r="D54">
         <v>1700000000</v>
@@ -1646,27 +1646,27 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55">
-        <v>-57.448999999999998</v>
+        <v>-56.976999999999997</v>
       </c>
       <c r="D55">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56">
-        <v>-58.976999999999997</v>
+        <v>-57.448999999999998</v>
       </c>
       <c r="D56">
         <v>1700003000</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57">
-        <v>-57.133000000000003</v>
+        <v>-58.976999999999997</v>
       </c>
       <c r="D57">
         <v>1700003000</v>
@@ -1688,27 +1688,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58">
-        <v>-58.295000000000002</v>
+        <v>-57.133000000000003</v>
       </c>
       <c r="D58">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59">
-        <v>-57.405999999999999</v>
+        <v>-58.295000000000002</v>
       </c>
       <c r="D59">
         <v>1700000000</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60">
-        <v>-58.262</v>
+        <v>-57.405999999999999</v>
       </c>
       <c r="D60">
         <v>1700000000</v>
@@ -1730,41 +1730,41 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61">
-        <v>-57.978000000000002</v>
+        <v>-58.262</v>
       </c>
       <c r="D61">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62">
-        <v>-57.930999999999997</v>
+        <v>-57.978000000000002</v>
       </c>
       <c r="D62">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63">
-        <v>-58.567</v>
+        <v>-57.930999999999997</v>
       </c>
       <c r="D63">
         <v>1700000000</v>
@@ -1772,55 +1772,55 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64">
-        <v>-58.591000000000001</v>
+        <v>-58.567</v>
       </c>
       <c r="D64">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C65">
-        <v>-58.978999999999999</v>
+        <v>-58.591000000000001</v>
       </c>
       <c r="D65">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66">
-        <v>-59.192</v>
+        <v>-58.978999999999999</v>
       </c>
       <c r="D66">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67">
-        <v>-59.445999999999998</v>
+        <v>-59.192</v>
       </c>
       <c r="D67">
         <v>1700003000</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68">
-        <v>-59.613</v>
+        <v>-59.445999999999998</v>
       </c>
       <c r="D68">
         <v>1700003000</v>
@@ -1842,27 +1842,27 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C69">
-        <v>-59.761000000000003</v>
+        <v>-59.613</v>
       </c>
       <c r="D69">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C70">
-        <v>-60.348999999999997</v>
+        <v>-59.761000000000003</v>
       </c>
       <c r="D70">
         <v>1700000000</v>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71">
-        <v>-60.146999999999998</v>
+        <v>-60.348999999999997</v>
       </c>
       <c r="D71">
         <v>1700000000</v>
@@ -1884,13 +1884,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72">
-        <v>-60.341000000000001</v>
+        <v>-60.146999999999998</v>
       </c>
       <c r="D72">
         <v>1700000000</v>
@@ -1898,13 +1898,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C73">
-        <v>-60.353999999999999</v>
+        <v>-60.341000000000001</v>
       </c>
       <c r="D73">
         <v>1700000000</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74">
-        <v>-60.725000000000001</v>
+        <v>-60.353999999999999</v>
       </c>
       <c r="D74">
         <v>1700000000</v>
@@ -1926,13 +1926,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C75">
-        <v>-60.344000000000001</v>
+        <v>-60.725000000000001</v>
       </c>
       <c r="D75">
         <v>1700000000</v>
@@ -1940,41 +1940,41 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C76">
-        <v>-60.286999999999999</v>
+        <v>-60.344000000000001</v>
       </c>
       <c r="D76">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77">
-        <v>-59.902000000000001</v>
+        <v>-60.286999999999999</v>
       </c>
       <c r="D77">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C78">
-        <v>-60.023000000000003</v>
+        <v>-59.902000000000001</v>
       </c>
       <c r="D78">
         <v>1700000000</v>
@@ -1982,13 +1982,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C79">
-        <v>-59.765999999999998</v>
+        <v>-60.023000000000003</v>
       </c>
       <c r="D79">
         <v>1700000000</v>
@@ -1996,13 +1996,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C80">
-        <v>-59.332000000000001</v>
+        <v>-59.765999999999998</v>
       </c>
       <c r="D80">
         <v>1700000000</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81">
-        <v>-59.134999999999998</v>
+        <v>-59.332000000000001</v>
       </c>
       <c r="D81">
         <v>1700000000</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82">
-        <v>-58.893999999999998</v>
+        <v>-59.134999999999998</v>
       </c>
       <c r="D82">
         <v>1700000000</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83">
-        <v>-58.889000000000003</v>
+        <v>-58.893999999999998</v>
       </c>
       <c r="D83">
         <v>1700000000</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C84">
-        <v>-59.354999999999997</v>
+        <v>-58.889000000000003</v>
       </c>
       <c r="D84">
         <v>1700000000</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C85">
-        <v>-58.529000000000003</v>
+        <v>-59.354999999999997</v>
       </c>
       <c r="D85">
         <v>1700000000</v>
@@ -2080,13 +2080,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C86">
-        <v>-58.008000000000003</v>
+        <v>-58.529000000000003</v>
       </c>
       <c r="D86">
         <v>1700000000</v>
@@ -2094,41 +2094,41 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C87">
-        <v>-57.521000000000001</v>
+        <v>-58.008000000000003</v>
       </c>
       <c r="D87">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C88">
-        <v>-58.066000000000003</v>
+        <v>-57.521000000000001</v>
       </c>
       <c r="D88">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C89">
-        <v>-57.996000000000002</v>
+        <v>-58.066000000000003</v>
       </c>
       <c r="D89">
         <v>1700000000</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90">
-        <v>-58.127000000000002</v>
+        <v>-57.996000000000002</v>
       </c>
       <c r="D90">
         <v>1700000000</v>
@@ -2150,13 +2150,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C91">
-        <v>-58.103999999999999</v>
+        <v>-58.127000000000002</v>
       </c>
       <c r="D91">
         <v>1700000000</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92">
-        <v>-58.253999999999998</v>
+        <v>-58.103999999999999</v>
       </c>
       <c r="D92">
         <v>1700000000</v>
@@ -2178,13 +2178,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C93">
-        <v>-57.914999999999999</v>
+        <v>-58.253999999999998</v>
       </c>
       <c r="D93">
         <v>1700000000</v>
@@ -2192,41 +2192,41 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C94">
-        <v>-58.045999999999999</v>
+        <v>-57.914999999999999</v>
       </c>
       <c r="D94">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C95">
-        <v>-57.837000000000003</v>
+        <v>-58.045999999999999</v>
       </c>
       <c r="D95">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C96">
-        <v>-57.646000000000001</v>
+        <v>-57.837000000000003</v>
       </c>
       <c r="D96">
         <v>1700000000</v>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97">
-        <v>-57.932000000000002</v>
+        <v>-57.646000000000001</v>
       </c>
       <c r="D97">
         <v>1700000000</v>
@@ -2248,13 +2248,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C98">
-        <v>-58.026000000000003</v>
+        <v>-57.932000000000002</v>
       </c>
       <c r="D98">
         <v>1700000000</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99">
-        <v>-58.067999999999998</v>
+        <v>-58.026000000000003</v>
       </c>
       <c r="D99">
         <v>1700000000</v>
@@ -2276,69 +2276,69 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C100">
-        <v>-57.993000000000002</v>
+        <v>-58.067999999999998</v>
       </c>
       <c r="D100">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101">
-        <v>-58.87</v>
+        <v>-57.993000000000002</v>
       </c>
       <c r="D101">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102">
-        <v>-58.715000000000003</v>
+        <v>-58.87</v>
       </c>
       <c r="D102">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103">
-        <v>-58.802999999999997</v>
+        <v>-58.715000000000003</v>
       </c>
       <c r="D103">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C104">
-        <v>-59.363999999999997</v>
+        <v>-58.802999999999997</v>
       </c>
       <c r="D104">
         <v>1700000000</v>
@@ -2346,13 +2346,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C105">
-        <v>-59.37</v>
+        <v>-59.363999999999997</v>
       </c>
       <c r="D105">
         <v>1700000000</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106">
-        <v>-59.859000000000002</v>
+        <v>-59.37</v>
       </c>
       <c r="D106">
         <v>1700000000</v>
@@ -2374,13 +2374,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107">
-        <v>-60.247999999999998</v>
+        <v>-59.859000000000002</v>
       </c>
       <c r="D107">
         <v>1700000000</v>
@@ -2388,13 +2388,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108">
-        <v>-60.780999999999999</v>
+        <v>-60.247999999999998</v>
       </c>
       <c r="D108">
         <v>1700000000</v>
@@ -2402,27 +2402,27 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C109">
-        <v>-60.758000000000003</v>
+        <v>-60.780999999999999</v>
       </c>
       <c r="D109">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C110">
-        <v>-61.906999999999996</v>
+        <v>-60.758000000000003</v>
       </c>
       <c r="D110">
         <v>1700003000</v>
@@ -2430,13 +2430,13 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C111">
-        <v>-61.512</v>
+        <v>-61.906999999999996</v>
       </c>
       <c r="D111">
         <v>1700003000</v>
@@ -2444,27 +2444,27 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C112">
-        <v>-59.414999999999999</v>
+        <v>-61.512</v>
       </c>
       <c r="D112">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C113">
-        <v>-59.878999999999998</v>
+        <v>-59.414999999999999</v>
       </c>
       <c r="D113">
         <v>1700000000</v>
@@ -2472,13 +2472,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C114">
-        <v>-60.448</v>
+        <v>-59.878999999999998</v>
       </c>
       <c r="D114">
         <v>1700000000</v>
@@ -2486,13 +2486,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C115">
-        <v>-60.515999999999998</v>
+        <v>-60.448</v>
       </c>
       <c r="D115">
         <v>1700000000</v>
@@ -2500,13 +2500,13 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C116">
-        <v>-63.914000000000001</v>
+        <v>-60.515999999999998</v>
       </c>
       <c r="D116">
         <v>1700000000</v>
@@ -2514,41 +2514,41 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C117">
-        <v>-68.566999999999993</v>
+        <v>-63.914000000000001</v>
       </c>
       <c r="D117">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C118">
-        <v>-69.260000000000005</v>
+        <v>-68.566999999999993</v>
       </c>
       <c r="D118">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C119">
-        <v>-71.22</v>
+        <v>-69.260000000000005</v>
       </c>
       <c r="D119">
         <v>1700000000</v>
@@ -2556,13 +2556,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C120">
-        <v>-67.33</v>
+        <v>-71.22</v>
       </c>
       <c r="D120">
         <v>1700000000</v>
@@ -2570,13 +2570,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C121">
-        <v>-69.635999999999996</v>
+        <v>-67.33</v>
       </c>
       <c r="D121">
         <v>1700000000</v>
@@ -2584,13 +2584,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122">
-        <v>-69.798000000000002</v>
+        <v>-69.635999999999996</v>
       </c>
       <c r="D122">
         <v>1700000000</v>
@@ -2598,27 +2598,27 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C123">
-        <v>-73.475999999999999</v>
+        <v>-69.798000000000002</v>
       </c>
       <c r="D123">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C124">
-        <v>-76.518000000000001</v>
+        <v>-73.475999999999999</v>
       </c>
       <c r="D124">
         <v>1700003000</v>
@@ -2626,41 +2626,41 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C125">
-        <v>-75.185000000000002</v>
+        <v>-76.518000000000001</v>
       </c>
       <c r="D125">
-        <v>1699997000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126">
-        <v>-72.844999999999999</v>
+        <v>-75.185000000000002</v>
       </c>
       <c r="D126">
-        <v>1700000000</v>
+        <v>1699997000</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C127">
-        <v>-67.316999999999993</v>
+        <v>-72.844999999999999</v>
       </c>
       <c r="D127">
         <v>1700000000</v>
@@ -2668,13 +2668,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128">
-        <v>-66.632000000000005</v>
+        <v>-67.316999999999993</v>
       </c>
       <c r="D128">
         <v>1700000000</v>
@@ -2682,41 +2682,41 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C129">
-        <v>-65.037999999999997</v>
+        <v>-66.632000000000005</v>
       </c>
       <c r="D129">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C130">
-        <v>-65.111000000000004</v>
+        <v>-65.037999999999997</v>
       </c>
       <c r="D130">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C131">
-        <v>-64.567999999999998</v>
+        <v>-65.111000000000004</v>
       </c>
       <c r="D131">
         <v>1700000000</v>
@@ -2724,13 +2724,13 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C132">
-        <v>-64.501999999999995</v>
+        <v>-64.567999999999998</v>
       </c>
       <c r="D132">
         <v>1700000000</v>
@@ -2738,13 +2738,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C133">
-        <v>-63.972000000000001</v>
+        <v>-64.501999999999995</v>
       </c>
       <c r="D133">
         <v>1700000000</v>
@@ -2752,13 +2752,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C134">
-        <v>-63.932000000000002</v>
+        <v>-63.972000000000001</v>
       </c>
       <c r="D134">
         <v>1700000000</v>
@@ -2766,13 +2766,13 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C135">
-        <v>-63.426000000000002</v>
+        <v>-63.932000000000002</v>
       </c>
       <c r="D135">
         <v>1700000000</v>
@@ -2780,41 +2780,41 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C136">
-        <v>-63.29</v>
+        <v>-63.426000000000002</v>
       </c>
       <c r="D136">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C137">
-        <v>-62.42</v>
+        <v>-63.29</v>
       </c>
       <c r="D137">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C138">
-        <v>-62.18</v>
+        <v>-62.42</v>
       </c>
       <c r="D138">
         <v>1700000000</v>
@@ -2822,27 +2822,27 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139">
-        <v>-62.228000000000002</v>
+        <v>-62.18</v>
       </c>
       <c r="D139">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C140">
-        <v>-61.932000000000002</v>
+        <v>-62.228000000000002</v>
       </c>
       <c r="D140">
         <v>1700003000</v>
@@ -2850,13 +2850,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C141">
-        <v>-61.844000000000001</v>
+        <v>-61.932000000000002</v>
       </c>
       <c r="D141">
         <v>1700003000</v>
@@ -2864,139 +2864,139 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C142">
-        <v>-62.134999999999998</v>
+        <v>-61.844000000000001</v>
       </c>
       <c r="D142">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C143">
-        <v>-62.036000000000001</v>
+        <v>-62.134999999999998</v>
       </c>
       <c r="D143">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C144">
-        <v>-62.030999999999999</v>
+        <v>-62.036000000000001</v>
       </c>
       <c r="D144">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C145">
-        <v>-62.442</v>
+        <v>-62.030999999999999</v>
       </c>
       <c r="D145">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C146">
-        <v>-62.436999999999998</v>
+        <v>-62.442</v>
       </c>
       <c r="D146">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C147">
-        <v>-62.378</v>
+        <v>-62.436999999999998</v>
       </c>
       <c r="D147">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C148">
-        <v>-62.848999999999997</v>
+        <v>-62.378</v>
       </c>
       <c r="D148">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C149">
-        <v>-62.476999999999997</v>
+        <v>-62.848999999999997</v>
       </c>
       <c r="D149">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C150">
-        <v>-62.634999999999998</v>
+        <v>-62.476999999999997</v>
       </c>
       <c r="D150">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C151">
-        <v>-62.610999999999997</v>
+        <v>-62.634999999999998</v>
       </c>
       <c r="D151">
         <v>1700000000</v>
@@ -3004,13 +3004,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C152">
-        <v>-63.064</v>
+        <v>-62.610999999999997</v>
       </c>
       <c r="D152">
         <v>1700000000</v>
@@ -3018,13 +3018,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C153">
-        <v>-63.747</v>
+        <v>-63.064</v>
       </c>
       <c r="D153">
         <v>1700000000</v>
@@ -3032,13 +3032,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C154">
-        <v>-63.618000000000002</v>
+        <v>-63.747</v>
       </c>
       <c r="D154">
         <v>1700000000</v>
@@ -3046,13 +3046,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C155">
-        <v>-64.058999999999997</v>
+        <v>-63.618000000000002</v>
       </c>
       <c r="D155">
         <v>1700000000</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C156">
-        <v>-64.537000000000006</v>
+        <v>-64.058999999999997</v>
       </c>
       <c r="D156">
         <v>1700000000</v>
@@ -3074,13 +3074,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C157">
-        <v>-64.923000000000002</v>
+        <v>-64.537000000000006</v>
       </c>
       <c r="D157">
         <v>1700000000</v>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C158">
-        <v>-64.257000000000005</v>
+        <v>-64.923000000000002</v>
       </c>
       <c r="D158">
         <v>1700000000</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C159">
-        <v>-64.995000000000005</v>
+        <v>-64.257000000000005</v>
       </c>
       <c r="D159">
         <v>1700000000</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C160">
-        <v>-65.307000000000002</v>
+        <v>-64.995000000000005</v>
       </c>
       <c r="D160">
         <v>1700000000</v>
@@ -3130,27 +3130,27 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C161">
-        <v>-67.403000000000006</v>
+        <v>-65.307000000000002</v>
       </c>
       <c r="D161">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C162">
-        <v>-66.22</v>
+        <v>-67.403000000000006</v>
       </c>
       <c r="D162">
         <v>1700003000</v>
@@ -3158,27 +3158,27 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C163">
-        <v>-68.004000000000005</v>
+        <v>-66.22</v>
       </c>
       <c r="D163">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C164">
-        <v>-68.828999999999994</v>
+        <v>-68.004000000000005</v>
       </c>
       <c r="D164">
         <v>1700000000</v>
@@ -3186,27 +3186,27 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C165">
-        <v>-70.23</v>
+        <v>-68.828999999999994</v>
       </c>
       <c r="D165">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C166">
-        <v>-71.227999999999994</v>
+        <v>-70.23</v>
       </c>
       <c r="D166">
         <v>1700003000</v>
@@ -3214,97 +3214,97 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C167">
-        <v>-72.352999999999994</v>
+        <v>-71.227999999999994</v>
       </c>
       <c r="D167">
-        <v>1700006000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C168">
-        <v>-71.894999999999996</v>
+        <v>-72.352999999999994</v>
       </c>
       <c r="D168">
-        <v>1700003000</v>
+        <v>1700006000</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C169">
-        <v>-72.918999999999997</v>
+        <v>-71.894999999999996</v>
       </c>
       <c r="D169">
-        <v>1699997000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C170">
-        <v>-70.721000000000004</v>
+        <v>-72.918999999999997</v>
       </c>
       <c r="D170">
-        <v>1700000000</v>
+        <v>1699997000</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C171">
-        <v>-70.534000000000006</v>
+        <v>-70.721000000000004</v>
       </c>
       <c r="D171">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C172">
-        <v>-68.39</v>
+        <v>-70.534000000000006</v>
       </c>
       <c r="D172">
-        <v>1700000000</v>
+        <v>1700003000</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C173">
-        <v>-66.825000000000003</v>
+        <v>-68.39</v>
       </c>
       <c r="D173">
         <v>1700000000</v>
@@ -3312,13 +3312,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C174">
-        <v>-65.667000000000002</v>
+        <v>-66.825000000000003</v>
       </c>
       <c r="D174">
         <v>1700000000</v>
@@ -3326,13 +3326,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C175">
-        <v>-64.515000000000001</v>
+        <v>-65.667000000000002</v>
       </c>
       <c r="D175">
         <v>1700000000</v>
@@ -3340,27 +3340,27 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C176">
-        <v>-74.100999999999999</v>
+        <v>-64.515000000000001</v>
       </c>
       <c r="D176">
-        <v>1700003000</v>
+        <v>1700000000</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C177">
-        <v>-70.528000000000006</v>
+        <v>-74.100999999999999</v>
       </c>
       <c r="D177">
         <v>1700003000</v>
@@ -3368,13 +3368,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C178">
-        <v>-68.001000000000005</v>
+        <v>-70.528000000000006</v>
       </c>
       <c r="D178">
         <v>1700003000</v>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C179">
-        <v>-66.903000000000006</v>
+        <v>-68.001000000000005</v>
       </c>
       <c r="D179">
         <v>1700003000</v>
@@ -3396,15 +3396,29 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>358</v>
+      </c>
+      <c r="C180">
+        <v>-66.903000000000006</v>
+      </c>
+      <c r="D180">
+        <v>1700003000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B181">
         <v>360</v>
       </c>
-      <c r="C180">
+      <c r="C181">
         <v>-65.498000000000005</v>
       </c>
-      <c r="D180">
+      <c r="D181">
         <v>1700000000</v>
       </c>
     </row>

--- a/Yagi.xlsx
+++ b/Yagi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User_Antenne\Desktop\C J P\Master-Thesis-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\# Thesis 2022-2023\Master-Thesis-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="2205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="2208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>1</t>
   </si>
@@ -559,6 +559,18 @@
   </si>
   <si>
     <t>180</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Step_Size</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Freq</t>
   </si>
 </sst>
 </file>
@@ -595,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -876,30 +888,30 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>-65.400000000000006</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Yagi.xlsx
+++ b/Yagi.xlsx
@@ -888,7 +888,7 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>

--- a/Yagi.xlsx
+++ b/Yagi.xlsx
@@ -885,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3434,6 +3434,20 @@
         <v>1700000000</v>
       </c>
     </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>-60.710999999999999</v>
+      </c>
+      <c r="D182">
+        <v>1700003000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
